--- a/DAX Orders.xlsx
+++ b/DAX Orders.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\DAX Query DataSet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SSUET Official\Youexcel\Dax\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB610F71-4016-45C9-93C5-EC69D6B167EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A7187D-0C90-4533-BD43-E737422BD3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B33B19FE-EFB8-4351-B588-C5E37564B70E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{B33B19FE-EFB8-4351-B588-C5E37564B70E}"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="26">
   <si>
     <t>Order ID</t>
   </si>
@@ -113,6 +113,9 @@
   <si>
     <t>Pani puri</t>
   </si>
+  <si>
+    <t>Profit Cost</t>
+  </si>
 </sst>
 </file>
 
@@ -157,7 +160,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -170,10 +180,29 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FFC2921C-D04B-40FB-940F-0902F24E53FF}" name="Table1" displayName="Table1" ref="A1:H101" totalsRowShown="0">
+  <autoFilter ref="A1:H101" xr:uid="{FFC2921C-D04B-40FB-940F-0902F24E53FF}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{72131067-DF39-4B56-9F38-44AD551318B7}" name="Order ID"/>
+    <tableColumn id="2" xr3:uid="{F6C257C4-1B16-407A-84C2-C87E58A0EC9E}" name="Product ID"/>
+    <tableColumn id="3" xr3:uid="{E28A3734-8099-4611-80E6-282519EAABF7}" name="Product"/>
+    <tableColumn id="4" xr3:uid="{01E9E806-B2FB-4EB1-811F-687BBF3C7861}" name="Product State"/>
+    <tableColumn id="5" xr3:uid="{8EFD5E73-EFA6-4940-9D69-03F0C0BE2848}" name="Selling Price"/>
+    <tableColumn id="6" xr3:uid="{F30A369D-9339-4F46-B90B-4898C49110FD}" name="Product Cost"/>
+    <tableColumn id="7" xr3:uid="{98603726-2215-437D-B0D8-AEBBD6EDC79B}" name="Quantity" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{FEDC3D7F-AB4F-45D5-A1E5-7A0CA838FC81}" name="Profit Cost" dataDxfId="0">
+      <calculatedColumnFormula>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -211,7 +240,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -317,7 +346,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -459,7 +488,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -467,16 +496,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361D0970-79E1-466D-9F3D-DEF37E68BC9B}">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,8 +536,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>80801</v>
       </c>
@@ -521,8 +562,12 @@
       <c r="G2" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>80802</v>
       </c>
@@ -544,8 +589,12 @@
       <c r="G3" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>485</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>80803</v>
       </c>
@@ -567,8 +616,12 @@
       <c r="G4" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>80804</v>
       </c>
@@ -590,8 +643,12 @@
       <c r="G5" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>80805</v>
       </c>
@@ -613,8 +670,12 @@
       <c r="G6" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>80806</v>
       </c>
@@ -636,8 +697,12 @@
       <c r="G7" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>80807</v>
       </c>
@@ -659,8 +724,12 @@
       <c r="G8" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>80808</v>
       </c>
@@ -682,8 +751,12 @@
       <c r="G9" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>80814</v>
       </c>
@@ -705,8 +778,12 @@
       <c r="G10" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>80828</v>
       </c>
@@ -728,8 +805,12 @@
       <c r="G11" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>80811</v>
       </c>
@@ -751,8 +832,12 @@
       <c r="G12" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>80812</v>
       </c>
@@ -774,8 +859,12 @@
       <c r="G13" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>485</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>80813</v>
       </c>
@@ -797,8 +886,12 @@
       <c r="G14" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>80861</v>
       </c>
@@ -820,8 +913,12 @@
       <c r="G15" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>80815</v>
       </c>
@@ -843,8 +940,12 @@
       <c r="G16" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>80816</v>
       </c>
@@ -866,8 +967,12 @@
       <c r="G17" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>485</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>80817</v>
       </c>
@@ -889,8 +994,12 @@
       <c r="G18" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>80818</v>
       </c>
@@ -912,8 +1021,12 @@
       <c r="G19" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>485</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>80877</v>
       </c>
@@ -935,8 +1048,12 @@
       <c r="G20" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>80885</v>
       </c>
@@ -958,8 +1075,12 @@
       <c r="G21" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>80895</v>
       </c>
@@ -981,8 +1102,12 @@
       <c r="G22" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>80810</v>
       </c>
@@ -1004,8 +1129,12 @@
       <c r="G23" s="1">
         <v>100.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>80820</v>
       </c>
@@ -1027,8 +1156,12 @@
       <c r="G24" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>80822</v>
       </c>
@@ -1050,8 +1183,12 @@
       <c r="G25" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>80823</v>
       </c>
@@ -1073,8 +1210,12 @@
       <c r="G26" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>80826</v>
       </c>
@@ -1096,8 +1237,12 @@
       <c r="G27" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>485</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>80827</v>
       </c>
@@ -1119,8 +1264,12 @@
       <c r="G28" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>80825</v>
       </c>
@@ -1142,8 +1291,12 @@
       <c r="G29" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>80829</v>
       </c>
@@ -1165,8 +1318,12 @@
       <c r="G30" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>80830</v>
       </c>
@@ -1188,8 +1345,12 @@
       <c r="G31" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>485</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>80831</v>
       </c>
@@ -1211,8 +1372,12 @@
       <c r="G32" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>80832</v>
       </c>
@@ -1234,8 +1399,12 @@
       <c r="G33" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>485</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>80834</v>
       </c>
@@ -1257,8 +1426,12 @@
       <c r="G34" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>80836</v>
       </c>
@@ -1280,8 +1453,12 @@
       <c r="G35" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>80840</v>
       </c>
@@ -1303,8 +1480,12 @@
       <c r="G36" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>80843</v>
       </c>
@@ -1326,8 +1507,12 @@
       <c r="G37" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>80837</v>
       </c>
@@ -1349,8 +1534,12 @@
       <c r="G38" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>80838</v>
       </c>
@@ -1372,8 +1561,12 @@
       <c r="G39" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>80845</v>
       </c>
@@ -1395,8 +1588,12 @@
       <c r="G40" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>80846</v>
       </c>
@@ -1418,8 +1615,12 @@
       <c r="G41" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>80841</v>
       </c>
@@ -1441,8 +1642,12 @@
       <c r="G42" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>80848</v>
       </c>
@@ -1464,8 +1669,12 @@
       <c r="G43" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>80852</v>
       </c>
@@ -1487,8 +1696,12 @@
       <c r="G44" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>80855</v>
       </c>
@@ -1510,8 +1723,12 @@
       <c r="G45" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>80857</v>
       </c>
@@ -1533,8 +1750,12 @@
       <c r="G46" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>80867</v>
       </c>
@@ -1556,8 +1777,12 @@
       <c r="G47" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>80873</v>
       </c>
@@ -1579,8 +1804,12 @@
       <c r="G48" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>80891</v>
       </c>
@@ -1602,8 +1831,12 @@
       <c r="G49" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>80849</v>
       </c>
@@ -1625,8 +1858,12 @@
       <c r="G50" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H50">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>80850</v>
       </c>
@@ -1648,8 +1885,12 @@
       <c r="G51" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>80809</v>
       </c>
@@ -1671,8 +1912,12 @@
       <c r="G52" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>80819</v>
       </c>
@@ -1694,8 +1939,12 @@
       <c r="G53" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>80853</v>
       </c>
@@ -1717,8 +1966,12 @@
       <c r="G54" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H54">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>80821</v>
       </c>
@@ -1740,8 +1993,12 @@
       <c r="G55" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H55">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>80824</v>
       </c>
@@ -1763,8 +2020,12 @@
       <c r="G56" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H56">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>80833</v>
       </c>
@@ -1786,8 +2047,12 @@
       <c r="G57" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H57">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>80835</v>
       </c>
@@ -1809,8 +2074,12 @@
       <c r="G58" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H58">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>80858</v>
       </c>
@@ -1832,8 +2101,12 @@
       <c r="G59" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H59">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>80859</v>
       </c>
@@ -1855,8 +2128,12 @@
       <c r="G60" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H60">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>485</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>80860</v>
       </c>
@@ -1878,8 +2155,12 @@
       <c r="G61" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H61">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>80839</v>
       </c>
@@ -1901,8 +2182,12 @@
       <c r="G62" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H62">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>80862</v>
       </c>
@@ -1924,8 +2209,12 @@
       <c r="G63" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H63">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>80863</v>
       </c>
@@ -1947,8 +2236,12 @@
       <c r="G64" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H64">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>80864</v>
       </c>
@@ -1970,8 +2263,12 @@
       <c r="G65" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H65">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>80865</v>
       </c>
@@ -1993,8 +2290,12 @@
       <c r="G66" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H66">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>80842</v>
       </c>
@@ -2016,8 +2317,12 @@
       <c r="G67" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H67">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>80844</v>
       </c>
@@ -2039,8 +2344,12 @@
       <c r="G68" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H68">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>80868</v>
       </c>
@@ -2062,8 +2371,12 @@
       <c r="G69" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H69">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>80869</v>
       </c>
@@ -2085,8 +2398,12 @@
       <c r="G70" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H70">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>80870</v>
       </c>
@@ -2108,8 +2425,12 @@
       <c r="G71" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H71">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>80871</v>
       </c>
@@ -2131,8 +2452,12 @@
       <c r="G72" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H72">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>80847</v>
       </c>
@@ -2154,8 +2479,12 @@
       <c r="G73" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H73">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>80851</v>
       </c>
@@ -2177,8 +2506,12 @@
       <c r="G74" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H74">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>80874</v>
       </c>
@@ -2200,8 +2533,12 @@
       <c r="G75" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H75">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>80875</v>
       </c>
@@ -2223,8 +2560,12 @@
       <c r="G76" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H76">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>485</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>80876</v>
       </c>
@@ -2246,8 +2587,12 @@
       <c r="G77" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H77">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>80854</v>
       </c>
@@ -2269,8 +2614,12 @@
       <c r="G78" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H78">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>80878</v>
       </c>
@@ -2292,8 +2641,12 @@
       <c r="G79" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H79">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>80879</v>
       </c>
@@ -2315,8 +2668,12 @@
       <c r="G80" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H80">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80880</v>
       </c>
@@ -2338,8 +2695,12 @@
       <c r="G81" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H81">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80881</v>
       </c>
@@ -2361,8 +2722,12 @@
       <c r="G82" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H82">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>80882</v>
       </c>
@@ -2384,8 +2749,12 @@
       <c r="G83" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H83">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>80883</v>
       </c>
@@ -2407,8 +2776,12 @@
       <c r="G84" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H84">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>485</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>80884</v>
       </c>
@@ -2430,8 +2803,12 @@
       <c r="G85" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H85">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>80856</v>
       </c>
@@ -2453,8 +2830,12 @@
       <c r="G86" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H86">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>80886</v>
       </c>
@@ -2476,8 +2857,12 @@
       <c r="G87" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H87">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>80887</v>
       </c>
@@ -2499,8 +2884,12 @@
       <c r="G88" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H88">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>80888</v>
       </c>
@@ -2522,8 +2911,12 @@
       <c r="G89" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H89">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>80889</v>
       </c>
@@ -2545,8 +2938,12 @@
       <c r="G90" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H90">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>80866</v>
       </c>
@@ -2568,8 +2965,12 @@
       <c r="G91" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H91">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>80872</v>
       </c>
@@ -2591,8 +2992,12 @@
       <c r="G92" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H92">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>80892</v>
       </c>
@@ -2614,8 +3019,12 @@
       <c r="G93" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H93">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>80893</v>
       </c>
@@ -2637,8 +3046,12 @@
       <c r="G94" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H94">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>485</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>80894</v>
       </c>
@@ -2660,8 +3073,12 @@
       <c r="G95" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H95">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>80890</v>
       </c>
@@ -2683,8 +3100,12 @@
       <c r="G96" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H96">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>80896</v>
       </c>
@@ -2706,8 +3127,12 @@
       <c r="G97" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H97">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>80897</v>
       </c>
@@ -2729,8 +3154,12 @@
       <c r="G98" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H98">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>80898</v>
       </c>
@@ -2752,8 +3181,12 @@
       <c r="G99" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H99">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>80899</v>
       </c>
@@ -2775,8 +3208,12 @@
       <c r="G100" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H100">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>80900</v>
       </c>
@@ -2798,8 +3235,15 @@
       <c r="G101" s="1">
         <v>12</v>
       </c>
+      <c r="H101">
+        <f>Table1[[#This Row],[Selling Price]]-Table1[[#This Row],[Product Cost]]</f>
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>